--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -95,7 +95,7 @@
     <t>2019 4.11 19:30-21:30</t>
   </si>
   <si>
-    <t>学习Spring OXM书本内容</t>
+    <t>学习了Spring OXM的书本内容</t>
   </si>
 </sst>
 </file>
@@ -130,52 +130,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,29 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,57 +259,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +473,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,11 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +535,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,42 +569,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +579,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +591,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -95,7 +95,7 @@
     <t>2019 4.11 19:30-21:30</t>
   </si>
   <si>
-    <t>学习了Spring OXM的书本内容</t>
+    <t>学习了Spring OXM书本内容</t>
   </si>
 </sst>
 </file>
@@ -130,6 +130,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -138,21 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,34 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -202,37 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -249,25 +259,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,13 +282,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +372,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,24 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,6 +487,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +579,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,127 +591,127 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">

--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>提交时间</t>
   </si>
@@ -92,10 +92,36 @@
     <t>重新整理消息中间件的作业</t>
   </si>
   <si>
+    <t>2019 4.10 19:30-21:30</t>
+  </si>
+  <si>
+    <t>运行调试消息中间件的作业</t>
+  </si>
+  <si>
     <t>2019 4.11 19:30-21:30</t>
   </si>
   <si>
-    <t>学习了Spring OXM书本内容</t>
+    <r>
+      <t>学习了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring OXM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>书本内容</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -130,96 +156,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -235,6 +177,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -243,31 +276,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,43 +308,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,91 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,43 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +499,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,15 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +582,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,34 +599,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +617,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,13 +1211,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="52.6" customWidth="1"/>
@@ -1219,6 +1245,14 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -102,7 +102,7 @@
   </si>
   <si>
     <r>
-      <t>学习了</t>
+      <t>学习</t>
     </r>
     <r>
       <rPr>
@@ -120,7 +120,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>书本内容</t>
+      <t>书本的内容</t>
     </r>
   </si>
 </sst>
@@ -129,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -156,14 +156,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,59 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -238,15 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -254,7 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,23 +286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,14 +294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,15 +499,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,30 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,8 +550,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +605,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,130 +620,130 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>

--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -120,7 +120,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>书本内容</t>
+      <t>书本的内容</t>
     </r>
   </si>
 </sst>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -155,6 +155,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -163,8 +198,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,16 +254,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,105 +294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,97 +308,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,79 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,30 +499,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,18 +536,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,16 +588,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +617,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -120,7 +120,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>书本的内容</t>
+      <t>书本内容</t>
     </r>
   </si>
 </sst>
@@ -155,70 +155,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +171,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -239,14 +270,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -261,39 +284,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,43 +308,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,139 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,21 +499,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,24 +519,50 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,28 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +605,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +617,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>提交时间</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>学习</t>
     </r>
     <r>
@@ -123,6 +129,12 @@
       <t>书本内容</t>
     </r>
   </si>
+  <si>
+    <t>2019 4.13 16:00-18:00</t>
+  </si>
+  <si>
+    <t>学习Sprig Boot 以及相关的环境配置</t>
+  </si>
 </sst>
 </file>
 
@@ -155,9 +167,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,8 +234,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,82 +252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +266,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -278,6 +283,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -285,15 +298,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,49 +320,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,133 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,21 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,6 +526,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -539,6 +551,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,7 +589,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,7 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,31 +611,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +629,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,13 +1223,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="52.6" customWidth="1"/>
@@ -1253,6 +1265,14 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -133,7 +133,7 @@
     <t>2019 4.13 16:00-18:00</t>
   </si>
   <si>
-    <t>学习Sprig Boot 以及相关的环境配置</t>
+    <t>学习Sprig Boot以及相关的环境配置</t>
   </si>
 </sst>
 </file>
@@ -168,6 +168,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,7 +197,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,44 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,17 +248,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,46 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,19 +320,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +446,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,151 +482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,28 +514,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,16 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,15 +596,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -605,9 +603,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,145 +617,145 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/EBManagement/doc/log1.xlsx
+++ b/EBManagement/doc/log1.xlsx
@@ -133,7 +133,7 @@
     <t>2019 4.13 16:00-18:00</t>
   </si>
   <si>
-    <t>学习Sprig Boot以及相关的环境配置</t>
+    <t>ssss</t>
   </si>
 </sst>
 </file>
@@ -167,6 +167,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -175,17 +206,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,36 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,8 +257,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -256,56 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,19 +320,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,163 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +511,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,8 +567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,38 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,22 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,10 +617,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +629,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
